--- a/tests/server/fixtures/data-cover/EOHHS-075-09302020-bad-proj_id-v1.xlsx
+++ b/tests/server/fixtures/data-cover/EOHHS-075-09302020-bad-proj_id-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/usdr/cares-reporter/tests/server/fixtures/data-cover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D6CC2-CD93-AC46-BF31-EAF3B5E6212F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7212F8F-F4E7-3E4D-A567-A90E5103ABF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certification" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="346">
   <si>
     <t>Certification</t>
   </si>
@@ -665,9 +665,6 @@
     <t>3675313</t>
   </si>
   <si>
-    <t>Lump sum payment</t>
-  </si>
-  <si>
     <t>Data analytics support</t>
   </si>
   <si>
@@ -1084,6 +1081,12 @@
   <si>
     <t>CRF Project TOTALS</t>
   </si>
+  <si>
+    <t>a cagegory</t>
+  </si>
+  <si>
+    <t>Lump sum payment(s)</t>
+  </si>
 </sst>
 </file>
 
@@ -1094,7 +1097,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1160,6 +1163,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1370,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1450,6 +1459,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29722,36 +29732,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>135</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="19">
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="44">
         <v>2163121.9700000002</v>
@@ -29762,7 +29772,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="19">
         <v>75</v>
@@ -29779,13 +29789,13 @@
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="19"/>
     </row>
@@ -30808,13 +30818,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
@@ -31853,46 +31863,46 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="I1" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="45" t="s">
+      <c r="M1" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="45" t="s">
         <v>225</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>226</v>
       </c>
       <c r="O1" s="45"/>
       <c r="P1" s="45"/>
@@ -31909,7 +31919,7 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>7</v>
@@ -31921,34 +31931,34 @@
         <v>42</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>120</v>
       </c>
       <c r="G2" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>229</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>230</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>169</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K2" s="46" t="s">
         <v>193</v>
       </c>
       <c r="L2" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="46" t="s">
-        <v>211</v>
-      </c>
       <c r="N2" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
@@ -31965,31 +31975,31 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="G3" s="19">
         <v>1</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>180</v>
@@ -31998,7 +32008,7 @@
         <v>180</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>180</v>
@@ -32009,105 +32019,105 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="B4" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="G4" s="19">
         <v>2</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>179</v>
       </c>
       <c r="J4" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>245</v>
-      </c>
       <c r="L4" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>250</v>
-      </c>
       <c r="L5" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="B6" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>253</v>
-      </c>
       <c r="L6" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="C7" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="C8" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
@@ -32115,7 +32125,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
@@ -32123,7 +32133,7 @@
         <v>88</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
@@ -32131,15 +32141,15 @@
         <v>93</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="C12" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
@@ -32147,7 +32157,7 @@
         <v>104</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
@@ -32155,7 +32165,7 @@
         <v>110</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
@@ -32163,36 +32173,36 @@
         <v>116</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="C16" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15" customHeight="1">
       <c r="C17" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15" customHeight="1">
       <c r="C18" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15" customHeight="1">
       <c r="C19" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>165</v>
@@ -32200,68 +32210,68 @@
     </row>
     <row r="20" spans="3:4" ht="15" customHeight="1">
       <c r="C20" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15" customHeight="1">
       <c r="C21" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15" customHeight="1">
       <c r="C22" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15" customHeight="1">
       <c r="C23" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="24" spans="3:4" ht="15" customHeight="1">
       <c r="C24" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15" customHeight="1">
       <c r="C25" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="15" customHeight="1">
       <c r="C26" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15" customHeight="1">
       <c r="D27" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="3:4" ht="15" customHeight="1">
       <c r="C28" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>60</v>
@@ -32269,102 +32279,102 @@
     </row>
     <row r="29" spans="3:4" ht="15" customHeight="1">
       <c r="D29" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1">
       <c r="D30" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1">
       <c r="D31" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="3:4" ht="15" customHeight="1">
       <c r="D32" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="15" customHeight="1">
       <c r="D33" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="15" customHeight="1">
       <c r="D34" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="15" customHeight="1">
       <c r="D35" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="15" customHeight="1">
       <c r="D36" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="15.75" customHeight="1">
       <c r="D37" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="15.75" customHeight="1">
       <c r="D38" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="4:4" ht="15.75" customHeight="1">
       <c r="D39" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="4:4" ht="15.75" customHeight="1">
       <c r="D40" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="4:4" ht="15.75" customHeight="1">
       <c r="D41" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="4:4" ht="15.75" customHeight="1">
       <c r="D42" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="4:4" ht="15.75" customHeight="1">
       <c r="D43" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="4:4" ht="15.75" customHeight="1">
       <c r="D44" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="4:4" ht="15.75" customHeight="1">
       <c r="D45" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="4:4" ht="15.75" customHeight="1">
       <c r="D46" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="4:4" ht="15.75" customHeight="1">
       <c r="D47" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="4:4" ht="15.75" customHeight="1">
       <c r="D48" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="4:4" ht="15.75" customHeight="1">
@@ -32374,62 +32384,62 @@
     </row>
     <row r="50" spans="4:4" ht="15.75" customHeight="1">
       <c r="D50" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="4:4" ht="15.75" customHeight="1">
       <c r="D51" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="4:4" ht="15.75" customHeight="1">
       <c r="D52" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="4:4" ht="15.75" customHeight="1">
       <c r="D53" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="4:4" ht="15.75" customHeight="1">
       <c r="D54" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="4:4" ht="15.75" customHeight="1">
       <c r="D55" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="4:4" ht="15.75" customHeight="1">
       <c r="D56" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="15.75" customHeight="1">
       <c r="D57" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="15.75" customHeight="1">
       <c r="D58" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="4:4" ht="15.75" customHeight="1">
       <c r="D59" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="4:4" ht="15.75" customHeight="1">
       <c r="D60" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="4:4" ht="15.75" customHeight="1">
       <c r="D61" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="4:4" ht="15.75" customHeight="1"/>
@@ -33394,12 +33404,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -33414,21 +33424,21 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="45"/>
       <c r="B7" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
@@ -33453,7 +33463,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="51"/>
@@ -33464,7 +33474,7 @@
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="51"/>
@@ -33475,7 +33485,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="50">
@@ -33495,7 +33505,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="51"/>
@@ -33506,7 +33516,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="51"/>
@@ -33517,7 +33527,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="50">
@@ -33537,7 +33547,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
@@ -33548,7 +33558,7 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="51"/>
@@ -33559,7 +33569,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="50">
@@ -33579,7 +33589,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
@@ -33590,7 +33600,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
@@ -33601,7 +33611,7 @@
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="50">
@@ -33621,7 +33631,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="51"/>
@@ -33632,7 +33642,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="51"/>
@@ -33643,7 +33653,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="50">
@@ -33663,7 +33673,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="50"/>
@@ -33674,7 +33684,7 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="52">
@@ -34700,7 +34710,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
@@ -38375,7 +38385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -38587,7 +38599,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="12.75" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -41870,7 +41884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AY1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -42177,6 +42193,9 @@
         <v>9199.25</v>
       </c>
       <c r="AE3" s="13"/>
+      <c r="AN3" s="53" t="s">
+        <v>344</v>
+      </c>
       <c r="AO3" s="19">
         <v>10000</v>
       </c>
@@ -44722,7 +44741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -44883,6 +44904,9 @@
       </c>
       <c r="B2" s="23" t="s">
         <v>57</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>179</v>
@@ -51986,7 +52010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -52127,10 +52153,10 @@
         <v>43987.643125000002</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="H2" s="19">
         <v>75</v>
@@ -54518,13 +54544,13 @@
         <v>117</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>134</v>
